--- a/techniqo/data_new_ticker/PNBHOUSING.xlsx
+++ b/techniqo/data_new_ticker/PNBHOUSING.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G956"/>
+  <dimension ref="A1:G958"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33846,6 +33846,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B957" t="n">
+        <v>327</v>
+      </c>
+      <c r="C957" t="n">
+        <v>331</v>
+      </c>
+      <c r="D957" t="n">
+        <v>312.45</v>
+      </c>
+      <c r="E957" t="n">
+        <v>323.5</v>
+      </c>
+      <c r="F957" t="n">
+        <v>650139</v>
+      </c>
+      <c r="G957" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B958" t="n">
+        <v>322.9</v>
+      </c>
+      <c r="C958" t="n">
+        <v>339</v>
+      </c>
+      <c r="D958" t="n">
+        <v>319</v>
+      </c>
+      <c r="E958" t="n">
+        <v>333.6</v>
+      </c>
+      <c r="F958" t="n">
+        <v>928011</v>
+      </c>
+      <c r="G958" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/PNBHOUSING.xlsx
+++ b/techniqo/data_new_ticker/PNBHOUSING.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G958"/>
+  <dimension ref="A1:G960"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33896,6 +33896,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B959" t="n">
+        <v>330</v>
+      </c>
+      <c r="C959" t="n">
+        <v>335</v>
+      </c>
+      <c r="D959" t="n">
+        <v>327</v>
+      </c>
+      <c r="E959" t="n">
+        <v>332</v>
+      </c>
+      <c r="F959" t="n">
+        <v>419754</v>
+      </c>
+      <c r="G959" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B960" t="n">
+        <v>335</v>
+      </c>
+      <c r="C960" t="n">
+        <v>338</v>
+      </c>
+      <c r="D960" t="n">
+        <v>332.05</v>
+      </c>
+      <c r="E960" t="n">
+        <v>335.55</v>
+      </c>
+      <c r="F960" t="n">
+        <v>476567</v>
+      </c>
+      <c r="G960" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
